--- a/data/sources/minima_sociaux_tous_regimes.xlsx
+++ b/data/sources/minima_sociaux_tous_regimes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-90" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="10980" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="benef" sheetId="6" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="sources" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1:H41"/>
 </workbook>
 </file>
 

--- a/data/sources/minima_sociaux_tous_regimes.xlsx
+++ b/data/sources/minima_sociaux_tous_regimes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="10980" windowHeight="12570" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="14175" windowHeight="15060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="benef" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="sources" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:H41"/>
+  <oleSize ref="A1:I41"/>
 </workbook>
 </file>
 
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -4075,12 +4075,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:E1"/>
@@ -4088,6 +4082,12 @@
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4123,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
